--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H2">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I2">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J2">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.02631446723344444</v>
+        <v>0.0526016463</v>
       </c>
       <c r="R2">
-        <v>0.236830205101</v>
+        <v>0.4734148167</v>
       </c>
       <c r="S2">
-        <v>0.01450335123982939</v>
+        <v>0.004080640997479041</v>
       </c>
       <c r="T2">
-        <v>0.01450335123982939</v>
+        <v>0.00408064099747904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H3">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I3">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J3">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.01825486565866666</v>
+        <v>0.0197849192</v>
       </c>
       <c r="R3">
-        <v>0.164293790928</v>
+        <v>0.1780642728</v>
       </c>
       <c r="S3">
-        <v>0.01006126121174321</v>
+        <v>0.001534840791082431</v>
       </c>
       <c r="T3">
-        <v>0.01006126121174321</v>
+        <v>0.001534840791082431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H4">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I4">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J4">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>1.277939686124222</v>
+        <v>3.839976987916667</v>
       </c>
       <c r="R4">
-        <v>11.501457175118</v>
+        <v>34.55979289125</v>
       </c>
       <c r="S4">
-        <v>0.7043428987846111</v>
+        <v>0.2978911997716092</v>
       </c>
       <c r="T4">
-        <v>0.7043428987846111</v>
+        <v>0.2978911997716092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H5">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I5">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J5">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.004465343846555556</v>
+        <v>0.007487083316666666</v>
       </c>
       <c r="R5">
-        <v>0.040188094619</v>
+        <v>0.06738374984999999</v>
       </c>
       <c r="S5">
-        <v>0.002461096766226605</v>
+        <v>0.0005808202077799104</v>
       </c>
       <c r="T5">
-        <v>0.002461096766226605</v>
+        <v>0.0005808202077799103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H6">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>0.009665293102888889</v>
+        <v>0.048533733038</v>
       </c>
       <c r="R6">
-        <v>0.08698763792600001</v>
+        <v>0.436803597342</v>
       </c>
       <c r="S6">
-        <v>0.00532707500644121</v>
+        <v>0.003765067345345916</v>
       </c>
       <c r="T6">
-        <v>0.005327075006441209</v>
+        <v>0.003765067345345915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H7">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
-        <v>0.006705004725333334</v>
+        <v>0.01825486565866667</v>
       </c>
       <c r="R7">
-        <v>0.060345042528</v>
+        <v>0.164293790928</v>
       </c>
       <c r="S7">
-        <v>0.003695497147387857</v>
+        <v>0.001416144901347459</v>
       </c>
       <c r="T7">
-        <v>0.003695497147387856</v>
+        <v>0.001416144901347459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H8">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>0.4693867264964445</v>
+        <v>3.543014926580556</v>
       </c>
       <c r="R8">
-        <v>4.224480538468</v>
+        <v>31.887134339225</v>
       </c>
       <c r="S8">
-        <v>0.258704860003376</v>
+        <v>0.2748539823569136</v>
       </c>
       <c r="T8">
-        <v>0.2587048600033759</v>
+        <v>0.2748539823569136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H9">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,524 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.001640118977111111</v>
+        <v>0.006908074717888889</v>
       </c>
       <c r="R9">
-        <v>0.014761070794</v>
+        <v>0.062172672461</v>
       </c>
       <c r="S9">
-        <v>0.0009039598403846734</v>
+        <v>0.0005359028640794816</v>
       </c>
       <c r="T9">
-        <v>0.0009039598403846732</v>
+        <v>0.0005359028640794815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.057558</v>
+      </c>
+      <c r="H10">
+        <v>0.172674</v>
+      </c>
+      <c r="I10">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J10">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.789222</v>
+      </c>
+      <c r="N10">
+        <v>2.367666</v>
+      </c>
+      <c r="O10">
+        <v>0.01341929863527565</v>
+      </c>
+      <c r="P10">
+        <v>0.01341929863527565</v>
+      </c>
+      <c r="Q10">
+        <v>0.045426039876</v>
+      </c>
+      <c r="R10">
+        <v>0.4088343588839999</v>
+      </c>
+      <c r="S10">
+        <v>0.003523984013996979</v>
+      </c>
+      <c r="T10">
+        <v>0.003523984013996978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.057558</v>
+      </c>
+      <c r="H11">
+        <v>0.172674</v>
+      </c>
+      <c r="I11">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J11">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.296848</v>
+      </c>
+      <c r="N11">
+        <v>0.890544</v>
+      </c>
+      <c r="O11">
+        <v>0.005047365584441773</v>
+      </c>
+      <c r="P11">
+        <v>0.005047365584441773</v>
+      </c>
+      <c r="Q11">
+        <v>0.017085977184</v>
+      </c>
+      <c r="R11">
+        <v>0.153773794656</v>
+      </c>
+      <c r="S11">
+        <v>0.001325466860511967</v>
+      </c>
+      <c r="T11">
+        <v>0.001325466860511966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.057558</v>
+      </c>
+      <c r="H12">
+        <v>0.172674</v>
+      </c>
+      <c r="I12">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J12">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>57.61405833333333</v>
+      </c>
+      <c r="N12">
+        <v>172.842175</v>
+      </c>
+      <c r="O12">
+        <v>0.9796232927683105</v>
+      </c>
+      <c r="P12">
+        <v>0.9796232927683105</v>
+      </c>
+      <c r="Q12">
+        <v>3.31614996955</v>
+      </c>
+      <c r="R12">
+        <v>29.84534972595</v>
+      </c>
+      <c r="S12">
+        <v>0.2572546388065159</v>
+      </c>
+      <c r="T12">
+        <v>0.2572546388065158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.057558</v>
+      </c>
+      <c r="H13">
+        <v>0.172674</v>
+      </c>
+      <c r="I13">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J13">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1123343333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.337003</v>
+      </c>
+      <c r="O13">
+        <v>0.001910043011972043</v>
+      </c>
+      <c r="P13">
+        <v>0.001910043011972043</v>
+      </c>
+      <c r="Q13">
+        <v>0.006465739557999999</v>
+      </c>
+      <c r="R13">
+        <v>0.058191656022</v>
+      </c>
+      <c r="S13">
+        <v>0.0005015881398258977</v>
+      </c>
+      <c r="T13">
+        <v>0.0005015881398258977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.10043</v>
+      </c>
+      <c r="I14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.789222</v>
+      </c>
+      <c r="N14">
+        <v>2.367666</v>
+      </c>
+      <c r="O14">
+        <v>0.01341929863527565</v>
+      </c>
+      <c r="P14">
+        <v>0.01341929863527565</v>
+      </c>
+      <c r="Q14">
+        <v>0.02642052181999999</v>
+      </c>
+      <c r="R14">
+        <v>0.23778469638</v>
+      </c>
+      <c r="S14">
+        <v>0.002049606278453713</v>
+      </c>
+      <c r="T14">
+        <v>0.002049606278453713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.10043</v>
+      </c>
+      <c r="I15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.296848</v>
+      </c>
+      <c r="N15">
+        <v>0.890544</v>
+      </c>
+      <c r="O15">
+        <v>0.005047365584441773</v>
+      </c>
+      <c r="P15">
+        <v>0.005047365584441773</v>
+      </c>
+      <c r="Q15">
+        <v>0.009937481546666665</v>
+      </c>
+      <c r="R15">
+        <v>0.08943733391999999</v>
+      </c>
+      <c r="S15">
+        <v>0.0007709130314999175</v>
+      </c>
+      <c r="T15">
+        <v>0.0007709130314999175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.10043</v>
+      </c>
+      <c r="I16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>57.61405833333333</v>
+      </c>
+      <c r="N16">
+        <v>172.842175</v>
+      </c>
+      <c r="O16">
+        <v>0.9796232927683105</v>
+      </c>
+      <c r="P16">
+        <v>0.9796232927683105</v>
+      </c>
+      <c r="Q16">
+        <v>1.928726626138888</v>
+      </c>
+      <c r="R16">
+        <v>17.35853963525</v>
+      </c>
+      <c r="S16">
+        <v>0.1496234718332719</v>
+      </c>
+      <c r="T16">
+        <v>0.1496234718332719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.10043</v>
+      </c>
+      <c r="I17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1123343333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.337003</v>
+      </c>
+      <c r="O17">
+        <v>0.001910043011972043</v>
+      </c>
+      <c r="P17">
+        <v>0.001910043011972043</v>
+      </c>
+      <c r="Q17">
+        <v>0.003760579032222221</v>
+      </c>
+      <c r="R17">
+        <v>0.03384521129</v>
+      </c>
+      <c r="S17">
+        <v>0.0002917318002867536</v>
+      </c>
+      <c r="T17">
+        <v>0.0002917318002867536</v>
       </c>
     </row>
   </sheetData>
